--- a/Packages/cn.etetet.statesync/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Packages/cn.etetet.statesync/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20452" windowHeight="8707" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="10480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Map2</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
   </si>
 </sst>
 </file>
@@ -1111,17 +1114,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:8">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" ht="13.5" spans="3:8">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" ht="13.5" spans="3:8">
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1300,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
     <row r="3" spans="3:8">
       <c r="C3" s="3" t="s">
@@ -1436,23 +1439,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H10"/>
+  <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:8">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" ht="13.5" spans="3:8">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" ht="13.5" spans="3:8">
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1605,6 +1608,23 @@
         <v>26</v>
       </c>
       <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="2">
+        <v>306</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
